--- a/Data/Temp/Yearly-Report-2021-FR121212.xlsx
+++ b/Data/Temp/Yearly-Report-2021-FR121212.xlsx
@@ -14,7 +14,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+  <x:si>
+    <x:t>626675</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Various paper supplies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>221966</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44393.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>266359</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RON</x:t>
+  </x:si>
   <x:si>
     <x:t>835218</x:t>
   </x:si>
@@ -76,9 +97,6 @@
     <x:t>117034</x:t>
   </x:si>
   <x:si>
-    <x:t>Various paper supplies</x:t>
-  </x:si>
-  <x:si>
     <x:t>2017-10-20</x:t>
   </x:si>
   <x:si>
@@ -89,9 +107,6 @@
   </x:si>
   <x:si>
     <x:t>53994</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RON</x:t>
   </x:si>
   <x:si>
     <x:t>539575</x:t>
@@ -517,45 +532,45 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
@@ -578,7 +593,30 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7">
+      <x:c r="A6" s="0" t="s">
         <x:v>31</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>36</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
